--- a/venv/interface_project/data/Scenario/scenario.xlsx
+++ b/venv/interface_project/data/Scenario/scenario.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,32 +248,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ScenarioName:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Remark:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>biz_id字段是由序号为1的接口传弟过来的;
-type为I代表是从序号1接口输入数据中传递的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'biz_id':1，'type':'I'}</t>
+    <t>ScenarioName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -281,59 +260,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>储值预览-&gt;储值提交-&gt;储值撤销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errcode": 0,"errmsg": "OK"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'biz_id':0,'type':'out'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0代表本身需要输入一个唯一值；并且程序做成token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>biz_id=w,token_I=biz_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScenarioName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值并撤销业务场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自定义充值100元,提交，并撤销</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>PrimaryKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>chargeAndCancel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PrimaryKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chargeAndCancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自定义充值并消费储值业务场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>END</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>chargeAndDeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点评微生活－接口自动化测试执行控制表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseUrl:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要执行的场景Flag标记请选Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yhleng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Platform:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点评微生活-API接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +426,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -822,10 +793,23 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -836,7 +820,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -922,26 +906,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -953,16 +925,10 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1040,11 +1006,26 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1351,444 +1332,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="31.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.375" style="13" customWidth="1"/>
-    <col min="9" max="9" width="12.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="38.625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="30.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="48"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="15" t="s">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="55"/>
-      <c r="K2" s="42"/>
-    </row>
-    <row r="3" spans="1:11" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="15" t="s">
+      <c r="E2" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="78"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="81"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="56">
-        <v>43218</v>
-      </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="14" t="s">
+      <c r="E3" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="77"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="57"/>
-      <c r="K3" s="42"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="42"/>
-    </row>
-    <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E4" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="76"/>
+    </row>
+    <row r="5" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="82" t="s">
+      <c r="B5" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="82" t="s">
+      <c r="D5" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" s="26" t="s">
+      <c r="E5" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="39"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>2</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="42"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="E7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="39"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
       <c r="B8" s="16"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="42"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D8" s="16"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="39"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="16"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="42"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D9" s="16"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="39"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="16"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="42"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D10" s="16"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="39"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="16"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="42"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D11" s="16"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="39"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="16"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="42"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D12" s="16"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="39"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="16"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="42"/>
-    </row>
-    <row r="14" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="16"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="39"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="17"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="45"/>
-    </row>
-    <row r="15" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="G16" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="50"/>
-      <c r="J16" s="51"/>
-    </row>
-    <row r="17" spans="7:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="G17" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="32"/>
-      <c r="J17" s="33"/>
-    </row>
-    <row r="18" spans="7:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="G18" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
-    </row>
-    <row r="19" spans="7:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="G19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="32"/>
-      <c r="J19" s="33"/>
-    </row>
-    <row r="20" spans="7:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="G20" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33"/>
-    </row>
-    <row r="21" spans="7:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="G21" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="32"/>
-      <c r="J21" s="33"/>
-    </row>
-    <row r="22" spans="7:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="G22" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="32"/>
-      <c r="J22" s="33"/>
-    </row>
-    <row r="23" spans="7:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="G23" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="32"/>
-      <c r="J23" s="33"/>
-    </row>
-    <row r="24" spans="7:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="G24" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" s="32"/>
-      <c r="J24" s="33"/>
-    </row>
-    <row r="25" spans="7:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="G25" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="33"/>
-    </row>
-    <row r="26" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G26" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="7:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="7:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="G28" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="7:10" ht="135.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G29" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="H29" s="40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="7:10" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G30" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30" s="40" t="s">
-        <v>69</v>
-      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="F4:J4"/>
+  <mergeCells count="6">
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E14">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D14">
       <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F14">
-      <formula1>"Post,Get"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1820,70 +1557,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="55"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="62"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="68"/>
+      <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="53"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="55"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="57">
         <v>43218</v>
       </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="69"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="63"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="60"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="54"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
@@ -2219,58 +1956,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="73"/>
       <c r="E2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="55"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="68"/>
+      <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="74"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="50">
         <v>43218</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="28"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="69"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="63"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="38" t="s">
@@ -2279,16 +2016,16 @@
       <c r="B4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="62"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="66"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
@@ -2585,11 +2322,11 @@
       <c r="G27" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="49" t="s">
+      <c r="H27" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="50"/>
-      <c r="J27" s="51"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
     </row>
     <row r="28" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="G28" s="29" t="s">
